--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2708.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2708.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.167089358719421</v>
+        <v>0.9616913199424744</v>
       </c>
       <c r="B1">
-        <v>2.410647449210911</v>
+        <v>2.712293148040771</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.768298149108887</v>
       </c>
       <c r="D1">
-        <v>2.344819888521725</v>
+        <v>1.251917600631714</v>
       </c>
       <c r="E1">
-        <v>1.215543175382555</v>
+        <v>1.304546475410461</v>
       </c>
     </row>
   </sheetData>
